--- a/To Be Modeled/Kimberly Clark.xlsx
+++ b/To Be Modeled/Kimberly Clark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E06E8C-6098-AE4F-A775-B48B22C693BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ABDF07-3F8B-C84A-9B3C-3C861594531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="500" windowWidth="18400" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$28:$AM$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$107:$AM$107</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1029,18 +1015,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,12 +1041,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1090,6 +1058,24 @@
     <xf numFmtId="9" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2648,8 +2634,8 @@
     <v>147.87</v>
     <v>108.74</v>
     <v>0.42809999999999998</v>
-    <v>-0.22</v>
-    <v>-1.6000000000000001E-3</v>
+    <v>-0.19</v>
+    <v>-1.382E-3</v>
     <v>USD</v>
     <v>Kimberly-Clark Corporation is engaged in the manufacturing and marketing of a range of products made from natural or synthetic fibers using advanced technologies in fibers, nonwovens, and absorbency. The Company's segments include Personal Care, which offers solutions and products, such as disposable diapers, training, and youth pants, swim pants, baby wipes, feminine and incontinence care products, and other related products, which are sold under the Huggies, Pull-Ups, Little Swimmers, GoodNites, DryNites, Sweety, Kotex, U by Kotex, Intimus, Depend, Plenitud, Softex, Poise and other brand names; Consumer Tissue offers facial and bathroom tissue, paper towels, napkins and related products, which are sold under the Kleenex, Scott, Cottonelle, Viva, Andrex, Scottex, Neve and other brand names, and K-C Professional, which offers solutions and supporting products such as wipers, tissue, towels, apparel, soaps, and sanitizers under the brands Kleenex, Scott, WypAll, Kimtech, and KleenGuard.</v>
     <v>44000</v>
@@ -2660,20 +2646,20 @@
     <v>138.82</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>45100.757241527346</v>
+    <v>45100.759881735939</v>
     <v>0</v>
     <v>137.11009999999999</v>
-    <v>46312289870</v>
+    <v>46322411300</v>
     <v>KIMBERLY-CLARK CORPORATION</v>
     <v>KIMBERLY-CLARK CORPORATION</v>
     <v>137.54</v>
     <v>23.533000000000001</v>
     <v>137.49</v>
-    <v>137.27000000000001</v>
+    <v>137.30000000000001</v>
     <v>337381000</v>
     <v>KMB</v>
     <v>KIMBERLY-CLARK CORPORATION (XNYS:KMB)</v>
-    <v>647732</v>
+    <v>658013</v>
     <v>1695201</v>
     <v>1928</v>
   </rv>
@@ -3243,11 +3229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT34" sqref="AT34"/>
+      <selection pane="bottomRight" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5466,15 +5452,15 @@
       </c>
       <c r="AT16" s="36">
         <f>AU101/AM3</f>
-        <v>2.2955286180916978</v>
+        <v>2.2960302998760844</v>
       </c>
       <c r="AU16" s="36">
         <f>AU101/AM28</f>
-        <v>23.946375320579111</v>
+        <v>23.95160873836608</v>
       </c>
       <c r="AV16" s="37">
         <f>AU101/AM107</f>
-        <v>16.945587219173071</v>
+        <v>16.949290633004026</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5866,15 +5852,15 @@
       </c>
       <c r="AT19" s="36">
         <f>AU101/AN3</f>
-        <v>2.2431604121863797</v>
+        <v>2.243650649036133</v>
       </c>
       <c r="AU19" s="36">
         <f>AU101/AN28</f>
-        <v>21.938555125532922</v>
+        <v>21.943349739459972</v>
       </c>
       <c r="AV19" s="37">
         <f>AU101/AN106</f>
-        <v>20.083386760624457</v>
+        <v>20.087775932350389</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,11 +6302,11 @@
       </c>
       <c r="AU22" s="41">
         <f>(-1*AM98)/AU101</f>
-        <v>3.3641178278451644E-2</v>
+        <v>3.3633827693248776E-2</v>
       </c>
       <c r="AV22" s="42">
         <f>AM107/AU101</f>
-        <v>5.9012413501289045E-2</v>
+        <v>5.8999519310429335E-2</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13759,10 +13745,10 @@
       <c r="AM83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT83" s="46" t="s">
+      <c r="AT83" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="AU83" s="47"/>
+      <c r="AU83" s="69"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13882,10 +13868,10 @@
       <c r="AM84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT84" s="48" t="s">
+      <c r="AT84" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="AU84" s="49"/>
+      <c r="AU84" s="71"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14383,10 +14369,10 @@
       <c r="AM88" s="1">
         <v>-876000000</v>
       </c>
-      <c r="AT88" s="50" t="s">
+      <c r="AT88" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AU88" s="51">
+      <c r="AU88" s="47">
         <f>AU85/(AU86+AU87)</f>
         <v>3.2986314188794011E-2</v>
       </c>
@@ -14799,10 +14785,10 @@
       <c r="AM91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT91" s="50" t="s">
+      <c r="AT91" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="AU91" s="51">
+      <c r="AU91" s="47">
         <f>AU89/AU90</f>
         <v>0.20378756689995883</v>
       </c>
@@ -14925,10 +14911,10 @@
       <c r="AM92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT92" s="52" t="s">
+      <c r="AT92" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AU92" s="53">
+      <c r="AU92" s="49">
         <f>AU88*(1-AU91)</f>
         <v>2.626411347926209E-2</v>
       </c>
@@ -15051,10 +15037,10 @@
       <c r="AM93" s="1">
         <v>-876000000</v>
       </c>
-      <c r="AT93" s="48" t="s">
+      <c r="AT93" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="AU93" s="49"/>
+      <c r="AU93" s="71"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15177,7 +15163,7 @@
       <c r="AT94" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AU94" s="54">
+      <c r="AU94" s="50">
         <f>[1]Treasuries!$C$8</f>
         <v>3.7229999999999999E-2</v>
       </c>
@@ -15303,7 +15289,7 @@
       <c r="AT95" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AU95" s="55" cm="1">
+      <c r="AU95" s="51" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>0.42809999999999998</v>
       </c>
@@ -15429,7 +15415,7 @@
       <c r="AT96" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="AU96" s="54">
+      <c r="AU96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15551,10 +15537,10 @@
       <c r="AM97" s="1">
         <v>-100000000</v>
       </c>
-      <c r="AT97" s="52" t="s">
+      <c r="AT97" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="AU97" s="53">
+      <c r="AU97" s="49">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
         <v>5.7252236999999997E-2</v>
       </c>
@@ -15677,10 +15663,10 @@
       <c r="AM98" s="1">
         <v>-1558000000</v>
       </c>
-      <c r="AT98" s="48" t="s">
+      <c r="AT98" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="AU98" s="49"/>
+      <c r="AU98" s="71"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15926,12 +15912,12 @@
       <c r="AM100" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AT100" s="50" t="s">
+      <c r="AT100" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="AU100" s="51">
+      <c r="AU100" s="47">
         <f>AU99/AU103</f>
-        <v>0.15582936566489444</v>
+        <v>0.15580062180758963</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16055,9 +16041,9 @@
       <c r="AT101" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="AU101" s="56" cm="1">
+      <c r="AU101" s="52" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46312289870</v>
+        <v>46322411300</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16178,12 +16164,12 @@
       <c r="AM102" s="10">
         <v>157000000</v>
       </c>
-      <c r="AT102" s="50" t="s">
+      <c r="AT102" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="AU102" s="51">
+      <c r="AU102" s="47">
         <f>AU101/AU103</f>
-        <v>0.84417063433510553</v>
+        <v>0.84419937819241042</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16304,12 +16290,12 @@
       <c r="AM103" s="1">
         <v>270000000</v>
       </c>
-      <c r="AT103" s="52" t="s">
+      <c r="AT103" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AU103" s="57">
+      <c r="AU103" s="53">
         <f>AU99+AU101</f>
-        <v>54861289870</v>
+        <v>54871411300</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16430,10 +16416,10 @@
       <c r="AM104" s="11">
         <v>427000000</v>
       </c>
-      <c r="AT104" s="48" t="s">
+      <c r="AT104" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="AU104" s="49"/>
+      <c r="AU104" s="71"/>
     </row>
     <row r="105" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
@@ -16615,7 +16601,7 @@
       </c>
       <c r="AU105" s="32">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.2423377368618018E-2</v>
+        <v>5.2424268086818639E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -16919,17 +16905,17 @@
       <c r="AO107" s="27"/>
       <c r="AP107" s="27"/>
       <c r="AQ107" s="27"/>
-      <c r="AR107" s="58">
+      <c r="AR107" s="54">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>80878055718.672607</v>
-      </c>
-      <c r="AS107" s="59" t="s">
+        <v>80876130776.384033</v>
+      </c>
+      <c r="AS107" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AT107" s="60" t="s">
+      <c r="AT107" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="AU107" s="61">
+      <c r="AU107" s="57">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -16973,132 +16959,132 @@
       <c r="AK108" s="13"/>
       <c r="AL108" s="13"/>
       <c r="AM108" s="13"/>
-      <c r="AN108" s="58">
+      <c r="AN108" s="54">
         <f t="shared" ref="AN108:AQ108" si="15">AN107+AN106</f>
         <v>2306000000</v>
       </c>
-      <c r="AO108" s="58">
+      <c r="AO108" s="54">
         <f t="shared" si="15"/>
         <v>2472000000</v>
       </c>
-      <c r="AP108" s="58">
+      <c r="AP108" s="54">
         <f t="shared" si="15"/>
         <v>2633000000</v>
       </c>
-      <c r="AQ108" s="58">
+      <c r="AQ108" s="54">
         <f t="shared" si="15"/>
         <v>2996000000</v>
       </c>
-      <c r="AR108" s="58">
+      <c r="AR108" s="54">
         <f>AR107+AR106</f>
-        <v>83860055718.672607</v>
-      </c>
-      <c r="AS108" s="59" t="s">
+        <v>83858130776.384033</v>
+      </c>
+      <c r="AS108" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="AT108" s="62" t="s">
+      <c r="AT108" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="AU108" s="63">
+      <c r="AU108" s="59">
         <f>AU105</f>
-        <v>5.2423377368618018E-2</v>
+        <v>5.2424268086818639E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="73"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="66" t="s">
+      <c r="AN110" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="AO110" s="56">
+      <c r="AO110" s="52">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>74077520348.922241</v>
+        <v>74075734896.073288</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="66" t="s">
+      <c r="AN111" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="AO111" s="56">
+      <c r="AO111" s="52">
         <f>AL40</f>
         <v>270000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="66" t="s">
+      <c r="AN112" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="AO112" s="56">
+      <c r="AO112" s="52">
         <f>AU99</f>
         <v>8549000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="66" t="s">
+      <c r="AN113" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="AO113" s="56">
+      <c r="AO113" s="52">
         <f>AO110+AO111-AO112</f>
-        <v>65798520348.922241</v>
+        <v>65796734896.073288</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="66" t="s">
+      <c r="AN114" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="AO114" s="67">
+      <c r="AO114" s="61">
         <f>AM34*(1+(5*AS16))</f>
         <v>329446243.87198806</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="68" t="s">
+      <c r="AN115" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="AO115" s="69">
+      <c r="AO115" s="63">
         <f>AO113/AO114</f>
-        <v>199.72460324813835</v>
+        <v>199.7191836906774</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="66" t="s">
+      <c r="AN116" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="AO116" s="70" cm="1">
+      <c r="AO116" s="64" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>137.27000000000001</v>
+        <v>137.30000000000001</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="71" t="s">
+      <c r="AN117" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="AO117" s="72">
+      <c r="AO117" s="66">
         <f>AO115/AO116-1</f>
-        <v>0.45497634769533279</v>
+        <v>0.45461896351549447</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="71" t="s">
+      <c r="AN118" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="AO118" s="73" t="str">
+      <c r="AO118" s="67" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/KMB" display="ROIC.AI | KMB" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
